--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3477679.798238555</v>
+        <v>3475427.718527349</v>
       </c>
     </row>
     <row r="7">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>103.9069048230606</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5262022477617</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,10 +710,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.08802744677259</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>250.8270402093339</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>127.4503987265494</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>328.0427458826101</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>251.1382003403121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>150.1095340224411</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>55.17585209939313</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>131.5522128412691</v>
+        <v>96.40766581472903</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="23">
@@ -2381,7 +2381,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>60.78102717027877</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>130.1208074460231</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3904,19 +3904,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>127.6065435523126</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>134.3852063573442</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.418012197378</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C2" t="n">
-        <v>1402.455495256967</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="D2" t="n">
-        <v>1044.189796650216</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="E2" t="n">
-        <v>1044.189796650216</v>
+        <v>926.121535257194</v>
       </c>
       <c r="F2" t="n">
-        <v>633.2038918606088</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>218.1314417056053</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181849</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.601998493312</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.6394815529</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D5" t="n">
-        <v>1236.6394815529</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="E5" t="n">
-        <v>850.8512289546557</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>439.8653241650481</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2382.341170533245</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1992.201838557433</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064547</v>
@@ -4644,22 +4644,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124869</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>320.1870662708825</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.807325826217</v>
+        <v>1239.503030201924</v>
       </c>
       <c r="C8" t="n">
-        <v>1716.844808885805</v>
+        <v>870.5405132615124</v>
       </c>
       <c r="D8" t="n">
-        <v>1358.579110279055</v>
+        <v>512.2748146547618</v>
       </c>
       <c r="E8" t="n">
-        <v>972.7908576808106</v>
+        <v>126.4865620565176</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2862.546497866151</v>
+        <v>2016.242202241858</v>
       </c>
       <c r="Y8" t="n">
-        <v>2472.407165890339</v>
+        <v>1626.102870266046</v>
       </c>
     </row>
     <row r="9">
@@ -4857,34 +4857,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4936,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
         <v>66.5121164321834</v>
@@ -4960,52 +4960,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6861761966519</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>384.6861761966519</v>
       </c>
       <c r="X10" t="n">
-        <v>788.0059827461959</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249853</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5297,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5555,7 +5555,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
         <v>2283.159972732779</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,37 +5732,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -6008,25 +6008,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,16 +6245,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6269,7 +6269,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,28 +6956,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7075,22 +7075,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,25 +7254,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1559.490355317017</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.073185280056</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.083634382039</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>38.1389282762425</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>36.41624546988356</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24139,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>106.4657939283491</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>43.72409101823415</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,19 +25792,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>45.44677382459307</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>680534.5999045507</v>
+        <v>680534.5999045506</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>680534.5999045506</v>
+        <v>680534.5999045507</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244626</v>
+      </c>
+      <c r="C2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244625</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
-      </c>
-      <c r="D2" t="n">
-        <v>759463.6371244621</v>
-      </c>
       <c r="E2" t="n">
+        <v>746610.604713255</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
         <v>746610.6047132551</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="H2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="L2" t="n">
-        <v>746610.6047132551</v>
-      </c>
-      <c r="M2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
+        <v>15436.64000687971</v>
+      </c>
+      <c r="F4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15436.64000687969</v>
+      </c>
+      <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="F4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>15436.64000687973</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15436.64000687972</v>
+      </c>
+      <c r="L4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
+        <v>15436.64000687962</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="O4" t="n">
         <v>15436.64000687969</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="K4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15436.64000687968</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687969</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15436.64000687967</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-770811.7932685759</v>
+        <v>-770811.7932685758</v>
       </c>
       <c r="C6" t="n">
-        <v>557932.9524590163</v>
+        <v>557932.9524590165</v>
       </c>
       <c r="D6" t="n">
-        <v>557932.9524590162</v>
+        <v>557932.9524590169</v>
       </c>
       <c r="E6" t="n">
-        <v>304638.9730751131</v>
+        <v>304604.2351496773</v>
       </c>
       <c r="F6" t="n">
-        <v>630051.4348824685</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="G6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570328</v>
       </c>
       <c r="H6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="I6" t="n">
-        <v>630051.4348824685</v>
+        <v>630016.696957033</v>
       </c>
       <c r="J6" t="n">
-        <v>412520.2324851911</v>
+        <v>412485.4945597553</v>
       </c>
       <c r="K6" t="n">
-        <v>630051.4348824687</v>
+        <v>630016.6969570327</v>
       </c>
       <c r="L6" t="n">
-        <v>630051.4348824683</v>
+        <v>630016.696957033</v>
       </c>
       <c r="M6" t="n">
-        <v>544996.4069469565</v>
+        <v>544961.669021521</v>
       </c>
       <c r="N6" t="n">
-        <v>630051.4348824688</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="O6" t="n">
-        <v>630051.4348824684</v>
+        <v>630016.6969570329</v>
       </c>
       <c r="P6" t="n">
-        <v>630051.4348824684</v>
+        <v>630016.6969570329</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022925</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>302.9691409186509</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>186.0815621395588</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351647</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>35.38479799627893</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>254.4799713457124</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>82.87897977084339</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.38479799627891</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>256.7665117192704</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>314.5552485790759</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>94.15744254776803</v>
+        <v>129.3019895743081</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="27">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143572</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>483.3274636075168</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32239,7 +32239,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,7 +32786,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33187,7 +33187,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M29" t="n">
         <v>965.6463440175675</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,7 +33743,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,10 +33752,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,28 +33974,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>173.3851399586646</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>171.212305634483</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>340.7312191630724</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,10 +37400,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,28 +37622,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>31.25110603664623</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
